--- a/excel/policy/cement_capacity.xlsx
+++ b/excel/policy/cement_capacity.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Desktop/181210_最新数据/政策进展数据汇总-统一了名字/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2BCE8-BE94-43D3-9D76-78B4B25F7DB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="-20820" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="3120" yWindow="-20820" windowWidth="28800" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单位 万吨" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="368">
   <si>
     <t>北京</t>
   </si>
@@ -1038,21 +1034,6 @@
   </si>
   <si>
     <t>省份</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>2014年</t>
-  </si>
-  <si>
-    <t>2015年</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>2017年</t>
   </si>
   <si>
     <t>河北</t>
@@ -1153,7 +1134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1255,8 +1236,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,54 +1514,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="3" max="7" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="3" max="7" width="8.875" style="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>341</v>
+      <c r="C1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2017</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1578,7 @@
         <v>116.413387</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1614,12 +1595,12 @@
         <v>117.20952</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E4" s="1">
         <v>458.6</v>
@@ -1634,12 +1615,12 @@
         <v>114.892574</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F5" s="1">
         <v>401</v>
@@ -1651,12 +1632,12 @@
         <v>117.969396</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1">
         <v>274</v>
@@ -1674,12 +1655,12 @@
         <v>119.60853400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D7" s="1">
         <v>1603</v>
@@ -1691,12 +1672,12 @@
         <v>116.690577</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H8">
         <v>38.310214999999999</v>
@@ -1705,12 +1686,12 @@
         <v>116.84558</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H9">
         <v>39.636584999999997</v>
@@ -1719,12 +1700,12 @@
         <v>118.186463</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D10" s="1">
         <v>465</v>
@@ -1736,12 +1717,12 @@
         <v>114.54563</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H11">
         <v>37.745190999999998</v>
@@ -1750,12 +1731,12 @@
         <v>115.67540200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E12" s="1">
         <v>80</v>
@@ -1770,12 +1751,12 @@
         <v>114.511459</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F13" s="1">
         <v>120</v>
@@ -1787,12 +1768,12 @@
         <v>115.47145999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1">
         <v>940</v>
@@ -1813,7 +1794,7 @@
         <v>114.521529</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1827,12 +1808,12 @@
         <v>121.48054</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H16">
         <v>29.990911000000001</v>
@@ -1841,12 +1822,12 @@
         <v>122.21355699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H17">
         <v>28.473278000000001</v>
@@ -1855,12 +1836,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H18">
         <v>28.662192999999998</v>
@@ -1869,12 +1850,12 @@
         <v>121.427432</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H19">
         <v>28.001086000000001</v>
@@ -1883,12 +1864,12 @@
         <v>120.706479</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H20">
         <v>29.866033999999999</v>
@@ -1897,12 +1878,12 @@
         <v>121.62857200000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H21">
         <v>28.975546000000001</v>
@@ -1911,12 +1892,12 @@
         <v>118.866597</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H22">
         <v>30.750973999999999</v>
@@ -1925,12 +1906,12 @@
         <v>120.763549</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H23">
         <v>30.036370000000002</v>
@@ -1939,12 +1920,12 @@
         <v>120.585477</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H24">
         <v>29.08464</v>
@@ -1953,12 +1934,12 @@
         <v>119.653441</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H25">
         <v>30.898963999999999</v>
@@ -1967,12 +1948,12 @@
         <v>120.09451799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H26">
         <v>30.253081999999999</v>
@@ -1981,12 +1962,12 @@
         <v>120.21550999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E27" s="1">
         <v>24</v>
@@ -1998,12 +1979,12 @@
         <v>120.167541</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H28">
         <v>31.303564999999999</v>
@@ -2012,12 +1993,12 @@
         <v>120.592412</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H29">
         <v>31.986549</v>
@@ -2026,12 +2007,12 @@
         <v>120.901591</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H30">
         <v>34.602249</v>
@@ -2040,12 +2021,12 @@
         <v>119.228623</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H31">
         <v>32.064652000000002</v>
@@ -2054,12 +2035,12 @@
         <v>118.80242200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H32">
         <v>31.815795999999999</v>
@@ -2068,12 +2049,12 @@
         <v>119.98148399999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D33" s="1">
         <v>112</v>
@@ -2091,12 +2072,12 @@
         <v>119.43049000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G34" s="1">
         <v>90</v>
@@ -2108,12 +2089,12 @@
         <v>119.41942299999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H35">
         <v>32.460675000000002</v>
@@ -2122,12 +2103,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H36">
         <v>31.498809999999999</v>
@@ -2136,12 +2117,12 @@
         <v>120.31858200000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C37" s="1">
         <v>30</v>
@@ -2156,12 +2137,12 @@
         <v>119.021483</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H38">
         <v>33.967750000000002</v>
@@ -2170,12 +2151,12 @@
         <v>118.281575</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H39">
         <v>34.212665999999999</v>
@@ -2184,12 +2165,12 @@
         <v>117.29057400000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H40">
         <v>22.276564</v>
@@ -2198,12 +2179,12 @@
         <v>113.58255699999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H41">
         <v>22.548456000000002</v>
@@ -2212,12 +2193,12 @@
         <v>114.06455200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H42">
         <v>23.116358999999999</v>
@@ -2226,12 +2207,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H43">
         <v>22.522314000000001</v>
@@ -2240,12 +2221,12 @@
         <v>113.39942000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H44">
         <v>22.584603999999999</v>
@@ -2254,12 +2235,12 @@
         <v>113.08855200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H45">
         <v>23.027308000000001</v>
@@ -2268,12 +2249,12 @@
         <v>113.75841800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H46">
         <v>23.135335999999999</v>
@@ -2282,12 +2263,12 @@
         <v>113.271429</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H47">
         <v>23.052889</v>
@@ -2296,12 +2277,12 @@
         <v>112.47148799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H48">
         <v>23.027759</v>
@@ -2310,12 +2291,12 @@
         <v>113.12850899999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H49">
         <v>23.359090999999999</v>
@@ -2324,12 +2305,12 @@
         <v>116.688529</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E50" s="1">
         <v>50</v>
@@ -2341,12 +2322,12 @@
         <v>110.365554</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E51" s="1">
         <v>15</v>
@@ -2358,12 +2339,12 @@
         <v>116.129541</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E52" s="1">
         <v>44</v>
@@ -2375,12 +2356,12 @@
         <v>110.931541</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H53">
         <v>23.749684999999999</v>
@@ -2389,12 +2370,12 @@
         <v>114.707442</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H54">
         <v>22.791262</v>
@@ -2403,12 +2384,12 @@
         <v>115.38154900000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H55">
         <v>21.864339000000001</v>
@@ -2417,12 +2398,12 @@
         <v>111.98848700000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H56">
         <v>23.688229</v>
@@ -2431,12 +2412,12 @@
         <v>113.062465</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H57">
         <v>23.662623</v>
@@ -2445,12 +2426,12 @@
         <v>116.62946599999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H58">
         <v>23.555741000000001</v>
@@ -2459,12 +2440,12 @@
         <v>116.37851499999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H59">
         <v>24.81588</v>
@@ -2473,12 +2454,12 @@
         <v>113.60352399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H60">
         <v>22.920911</v>
@@ -2487,12 +2468,12 @@
         <v>112.051512</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H61">
         <v>34.753439999999998</v>
@@ -2501,12 +2482,12 @@
         <v>113.631416</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H62">
         <v>33.77205</v>
@@ -2515,12 +2496,12 @@
         <v>113.199529</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H63">
         <v>34.778326</v>
@@ -2529,12 +2510,12 @@
         <v>111.20653</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H64">
         <v>34.624263999999997</v>
@@ -2543,12 +2524,12 @@
         <v>112.459424</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H65">
         <v>36.105939999999997</v>
@@ -2557,12 +2538,12 @@
         <v>114.399503</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H66">
         <v>34.802885000000003</v>
@@ -2571,12 +2552,12 @@
         <v>114.314595</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H67">
         <v>35.220964000000002</v>
@@ -2585,12 +2566,12 @@
         <v>113.248549</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H68">
         <v>32.996561</v>
@@ -2599,12 +2580,12 @@
         <v>112.534504</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H69">
         <v>32.153013999999999</v>
@@ -2613,12 +2594,12 @@
         <v>114.09748399999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H70">
         <v>34.041432999999998</v>
@@ -2627,12 +2608,12 @@
         <v>113.85847200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H71">
         <v>33.631829000000003</v>
@@ -2641,12 +2622,12 @@
         <v>114.703481</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H72">
         <v>35.752358999999998</v>
@@ -2655,12 +2636,12 @@
         <v>114.303591</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H73">
         <v>35.767592999999998</v>
@@ -2669,12 +2650,12 @@
         <v>115.03559300000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H74">
         <v>35.309640000000002</v>
@@ -2683,12 +2664,12 @@
         <v>113.93359700000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H75">
         <v>33.587710000000001</v>
@@ -2697,12 +2678,12 @@
         <v>114.023419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H76">
         <v>34.420202000000003</v>
@@ -2711,12 +2692,12 @@
         <v>115.662449</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H77">
         <v>33.017842000000002</v>
@@ -2725,12 +2706,12 @@
         <v>114.02846700000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F78" s="1">
         <v>10</v>
@@ -2742,12 +2723,12 @@
         <v>111.755512</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H79">
         <v>42.261687999999999</v>
@@ -2756,12 +2737,12 @@
         <v>118.895522</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H80">
         <v>40.662928999999998</v>
@@ -2770,12 +2751,12 @@
         <v>109.84654</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H81">
         <v>39.614483</v>
@@ -2784,12 +2765,12 @@
         <v>109.787441</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H82">
         <v>41.000749999999996</v>
@@ -2798,12 +2779,12 @@
         <v>113.13946799999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H83">
         <v>43.939424000000002</v>
@@ -2812,12 +2793,12 @@
         <v>116.054388</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H84">
         <v>39.662005999999998</v>
@@ -2826,12 +2807,12 @@
         <v>106.80039499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H85">
         <v>49.218446</v>
@@ -2840,12 +2821,12 @@
         <v>119.772367</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H86">
         <v>40.749358000000001</v>
@@ -2854,12 +2835,12 @@
         <v>107.3944</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H87">
         <v>43.657980000000002</v>
@@ -2868,12 +2849,12 @@
         <v>122.250523</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H88">
         <v>46.088464000000002</v>
@@ -2882,12 +2863,12 @@
         <v>122.04436099999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H89">
         <v>38.858277000000001</v>
@@ -2896,12 +2877,12 @@
         <v>105.735373</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H90">
         <v>37.876989999999999</v>
@@ -2910,12 +2891,12 @@
         <v>112.55639600000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H91">
         <v>40.082470000000001</v>
@@ -2924,12 +2905,12 @@
         <v>113.30643600000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H92">
         <v>36.201267000000001</v>
@@ -2938,12 +2919,12 @@
         <v>113.122562</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H93">
         <v>36.093743000000003</v>
@@ -2952,12 +2933,12 @@
         <v>111.525527</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H94">
         <v>37.862361999999997</v>
@@ -2966,12 +2947,12 @@
         <v>113.587615</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H95">
         <v>35.496284000000003</v>
@@ -2980,12 +2961,12 @@
         <v>112.858577</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H96">
         <v>39.337110000000003</v>
@@ -2994,12 +2975,12 @@
         <v>112.439374</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H97">
         <v>37.692841000000001</v>
@@ -3008,12 +2989,12 @@
         <v>112.759593</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H98">
         <v>35.032705999999997</v>
@@ -3022,12 +3003,12 @@
         <v>111.013385</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H99">
         <v>38.422381999999999</v>
@@ -3036,12 +3017,12 @@
         <v>112.74062000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F100" s="1">
         <v>45</v>
@@ -3053,12 +3034,12 @@
         <v>111.15044899999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H101">
         <v>36.656554</v>
@@ -3067,12 +3048,12 @@
         <v>117.12639900000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D102" s="1">
         <v>60</v>
@@ -3084,12 +3065,12 @@
         <v>120.389458</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E103" s="1">
         <v>1039</v>
@@ -3101,12 +3082,12 @@
         <v>118.061455</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H104">
         <v>34.815994000000003</v>
@@ -3115,12 +3096,12 @@
         <v>117.330539</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H105">
         <v>37.470039999999997</v>
@@ -3129,12 +3110,12 @@
         <v>121.45441700000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H106">
         <v>36.712649999999996</v>
@@ -3143,12 +3124,12 @@
         <v>119.168374</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H107">
         <v>35.420177000000002</v>
@@ -3157,12 +3138,12 @@
         <v>116.593614</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H108">
         <v>36.205857000000002</v>
@@ -3171,12 +3152,12 @@
         <v>117.094492</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H109">
         <v>35.422839000000003</v>
@@ -3185,12 +3166,12 @@
         <v>119.533418</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H110">
         <v>37.454847999999998</v>
@@ -3199,12 +3180,12 @@
         <v>118.588463</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H111">
         <v>36.462758999999998</v>
@@ -3213,12 +3194,12 @@
         <v>115.99158799999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H112">
         <v>37.388196999999998</v>
@@ -3227,12 +3208,12 @@
         <v>117.9774</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H113">
         <v>35.239407999999997</v>
@@ -3241,12 +3222,12 @@
         <v>115.487549</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H114">
         <v>36.219470999999999</v>
@@ -3255,12 +3236,12 @@
         <v>117.68354600000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H115">
         <v>37.516430999999997</v>
@@ -3269,12 +3250,12 @@
         <v>122.127545</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H116">
         <v>37.441307999999999</v>
@@ -3283,12 +3264,12 @@
         <v>116.36555300000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H117">
         <v>35.110672000000001</v>
@@ -3297,12 +3278,12 @@
         <v>118.36353699999999</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E118" s="1">
         <v>51.5</v>
@@ -3314,12 +3295,12 @@
         <v>117.233441</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E119" s="1">
         <v>660</v>
@@ -3331,12 +3312,12 @@
         <v>118.439435</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H120">
         <v>31.676265000000001</v>
@@ -3345,12 +3326,12 @@
         <v>118.513581</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H121">
         <v>33.850642000000001</v>
@@ -3359,12 +3340,12 @@
         <v>115.78446599999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H122">
         <v>31.741451999999999</v>
@@ -3373,12 +3354,12 @@
         <v>116.52641199999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F123" s="1">
         <v>51</v>
@@ -3390,12 +3371,12 @@
         <v>118.33940800000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H124">
         <v>30.670884999999998</v>
@@ -3404,12 +3385,12 @@
         <v>117.498424</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H125">
         <v>30.946601000000001</v>
@@ -3418,12 +3399,12 @@
         <v>118.76553699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H126">
         <v>32.896062000000001</v>
@@ -3432,12 +3413,12 @@
         <v>115.82043400000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H127">
         <v>33.652096</v>
@@ -3446,12 +3427,12 @@
         <v>116.97054300000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H128">
         <v>32.921523000000001</v>
@@ -3460,12 +3441,12 @@
         <v>117.39551400000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H129">
         <v>32.631847</v>
@@ -3474,12 +3455,12 @@
         <v>117.00638600000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H130">
         <v>33.961657000000002</v>
@@ -3488,12 +3469,12 @@
         <v>116.804536</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H131">
         <v>30.951232999999998</v>
@@ -3502,12 +3483,12 @@
         <v>117.81848100000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H132">
         <v>30.530957000000001</v>
@@ -3516,12 +3497,12 @@
         <v>117.063608</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H133">
         <v>30.130389999999998</v>
@@ -3530,12 +3511,12 @@
         <v>118.16808899999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H134">
         <v>28.689454999999999</v>
@@ -3544,12 +3525,12 @@
         <v>115.86458500000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H135">
         <v>29.71134</v>
@@ -3558,12 +3539,12 @@
         <v>116.007533</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H136">
         <v>27.823578999999999</v>
@@ -3572,12 +3553,12 @@
         <v>114.92353900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H137">
         <v>28.265787</v>
@@ -3586,12 +3567,12 @@
         <v>117.07557300000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H138">
         <v>27.954892999999998</v>
@@ -3600,12 +3581,12 @@
         <v>116.364537</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H139">
         <v>25.835176000000001</v>
@@ -3614,12 +3595,12 @@
         <v>114.94050799999999</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H140">
         <v>28.460626000000001</v>
@@ -3628,12 +3609,12 @@
         <v>117.94946299999999</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H141">
         <v>27.628392999999999</v>
@@ -3642,12 +3623,12 @@
         <v>113.86149899999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H142">
         <v>27.119727000000001</v>
@@ -3656,12 +3637,12 @@
         <v>115.000514</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H143">
         <v>27.820855999999999</v>
@@ -3670,12 +3651,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H144">
         <v>29.274248</v>
@@ -3684,12 +3665,12 @@
         <v>117.184574</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E145" s="1">
         <v>20</v>
@@ -3701,12 +3682,12 @@
         <v>119.30347</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H146">
         <v>24.485408</v>
@@ -3715,12 +3696,12 @@
         <v>118.096435</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H147">
         <v>24.879951999999999</v>
@@ -3729,12 +3710,12 @@
         <v>118.682444</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F148" s="1">
         <v>30</v>
@@ -3746,12 +3727,12 @@
         <v>117.023445</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H149">
         <v>26.672242000000001</v>
@@ -3760,12 +3741,12 @@
         <v>119.55450999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H150">
         <v>25.459865000000001</v>
@@ -3774,12 +3755,12 @@
         <v>119.014521</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H151">
         <v>24.518930000000001</v>
@@ -3788,12 +3769,12 @@
         <v>117.65357899999999</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H152">
         <v>26.269736000000002</v>
@@ -3802,12 +3783,12 @@
         <v>117.645521</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H153">
         <v>26.647772</v>
@@ -3816,12 +3797,12 @@
         <v>118.18437</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H154">
         <v>30.598466999999999</v>
@@ -3830,12 +3811,12 @@
         <v>114.31158600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E155" s="1">
         <v>36.700000000000003</v>
@@ -3847,12 +3828,12 @@
         <v>111.292552</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H156">
         <v>30.340843</v>
@@ -3861,12 +3842,12 @@
         <v>112.245519</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H157">
         <v>30.205207999999999</v>
@@ -3875,12 +3856,12 @@
         <v>115.045529</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H158">
         <v>30.396571000000002</v>
@@ -3889,12 +3870,12 @@
         <v>114.901611</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H159">
         <v>30.930689999999998</v>
@@ -3903,12 +3884,12 @@
         <v>113.922512</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H160">
         <v>30.459358999999999</v>
@@ -3917,12 +3898,12 @@
         <v>114.878489</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H161">
         <v>29.847055999999998</v>
@@ -3931,12 +3912,12 @@
         <v>114.328519</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H162">
         <v>32.635063000000002</v>
@@ -3945,12 +3926,12 @@
         <v>110.804529</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H163">
         <v>32.014797000000002</v>
@@ -3959,12 +3940,12 @@
         <v>112.128533</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H164">
         <v>31.041733000000001</v>
@@ -3973,12 +3954,12 @@
         <v>112.206389</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H165">
         <v>31.696515999999999</v>
@@ -3987,12 +3968,12 @@
         <v>113.389448</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H166">
         <v>30.277939</v>
@@ -4001,12 +3982,12 @@
         <v>109.49459299999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H167">
         <v>28.23489</v>
@@ -4015,12 +3996,12 @@
         <v>112.94547</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H168">
         <v>27.833568</v>
@@ -4029,12 +4010,12 @@
         <v>113.140474</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H169">
         <v>27.835702999999999</v>
@@ -4043,12 +4024,12 @@
         <v>112.950464</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E170" s="1">
         <v>8.8000000000000007</v>
@@ -4060,12 +4041,12 @@
         <v>111.705449</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H171">
         <v>29.122817000000001</v>
@@ -4074,12 +4055,12 @@
         <v>110.48553200000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H172">
         <v>29.363177</v>
@@ -4088,12 +4069,12 @@
         <v>113.135488</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H173">
         <v>26.899574999999999</v>
@@ -4102,12 +4083,12 @@
         <v>112.57844900000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H174">
         <v>27.245270999999999</v>
@@ -4116,12 +4097,12 @@
         <v>111.47443199999999</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H175">
         <v>28.559712000000001</v>
@@ -4130,12 +4111,12 @@
         <v>112.36151700000001</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H176">
         <v>25.776682999999998</v>
@@ -4144,12 +4125,12 @@
         <v>113.021458</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H177">
         <v>27.703208</v>
@@ -4158,12 +4139,12 @@
         <v>112.001503</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H178">
         <v>28.317367999999998</v>
@@ -4172,12 +4153,12 @@
         <v>109.74558</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H179">
         <v>26.425864000000001</v>
@@ -4186,12 +4167,12 @@
         <v>111.619454</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H180">
         <v>27.575161000000001</v>
@@ -4200,12 +4181,12 @@
         <v>110.00851400000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G181" s="1">
         <v>60</v>
@@ -4217,12 +4198,12 @@
         <v>108.373454</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H182">
         <v>25.242887</v>
@@ -4231,12 +4212,12 @@
         <v>110.20354500000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E183" s="1">
         <v>100</v>
@@ -4248,12 +4229,12 @@
         <v>109.126531</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H184">
         <v>24.331961</v>
@@ -4262,12 +4243,12 @@
         <v>109.434425</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H185">
         <v>22.659831000000001</v>
@@ -4276,12 +4257,12 @@
         <v>110.188453</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H186">
         <v>23.908187000000002</v>
@@ -4290,12 +4271,12 @@
         <v>106.624588</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H187">
         <v>24.40945</v>
@@ -4304,12 +4285,12 @@
         <v>111.57352400000001</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F188" s="1">
         <v>30</v>
@@ -4321,12 +4302,12 @@
         <v>108.091503</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H189">
         <v>23.756546</v>
@@ -4335,12 +4316,12 @@
         <v>109.22745500000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H190">
         <v>22.383116999999999</v>
@@ -4349,12 +4330,12 @@
         <v>107.37152</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H191">
         <v>23.482745999999999</v>
@@ -4363,12 +4344,12 @@
         <v>111.285518</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H192">
         <v>21.693004999999999</v>
@@ -4377,12 +4358,12 @@
         <v>108.36042</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H193">
         <v>21.986592999999999</v>
@@ -4391,12 +4372,12 @@
         <v>108.66058</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H194">
         <v>23.117448</v>
@@ -4405,12 +4386,12 @@
         <v>109.60551599999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H195">
         <v>20.044049999999999</v>
@@ -4419,12 +4400,12 @@
         <v>110.325526</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H196">
         <v>18.258735999999999</v>
@@ -4433,12 +4414,12 @@
         <v>109.51855999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H197">
         <v>45.808824000000001</v>
@@ -4447,12 +4428,12 @@
         <v>126.541611</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H198">
         <v>47.359977999999998</v>
@@ -4461,12 +4442,12 @@
         <v>123.92456900000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H199">
         <v>46.593634999999999</v>
@@ -4475,12 +4456,12 @@
         <v>125.108661</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H200">
         <v>44.556246999999999</v>
@@ -4489,12 +4470,12 @@
         <v>129.639544</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H201">
         <v>45.300874</v>
@@ -4503,12 +4484,12 @@
         <v>130.97561999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H202">
         <v>47.356056000000002</v>
@@ -4517,12 +4498,12 @@
         <v>130.30443299999999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H203">
         <v>46.653185000000001</v>
@@ -4531,12 +4512,12 @@
         <v>131.16534200000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H204">
         <v>47.733319000000002</v>
@@ -4545,12 +4526,12 @@
         <v>128.847544</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H205">
         <v>46.805691000000003</v>
@@ -4559,12 +4540,12 @@
         <v>130.327358</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H206">
         <v>45.776299999999999</v>
@@ -4573,12 +4554,12 @@
         <v>131.01154399999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H207">
         <v>50.251272999999998</v>
@@ -4587,12 +4568,12 @@
         <v>127.535487</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H208">
         <v>46.660032000000001</v>
@@ -4601,12 +4582,12 @@
         <v>126.975358</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H209">
         <v>50.420026999999997</v>
@@ -4615,7 +4596,7 @@
         <v>124.15292700000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -4629,7 +4610,7 @@
         <v>125.330606</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -4643,7 +4624,7 @@
         <v>126.555634</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>210</v>
       </c>
@@ -4657,7 +4638,7 @@
         <v>124.356483</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>211</v>
       </c>
@@ -4671,7 +4652,7 @@
         <v>125.150423</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>212</v>
       </c>
@@ -4685,7 +4666,7 @@
         <v>125.94661000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>213</v>
       </c>
@@ -4699,7 +4680,7 @@
         <v>126.42962799999999</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>214</v>
       </c>
@@ -4713,7 +4694,7 @@
         <v>124.83148</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>215</v>
       </c>
@@ -4727,7 +4708,7 @@
         <v>122.84558699999999</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>216</v>
       </c>
@@ -4741,12 +4722,12 @@
         <v>129.477372</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H219">
         <v>41.720914999999998</v>
@@ -4755,12 +4736,12 @@
         <v>123.455986</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D220" s="1">
         <v>60</v>
@@ -4772,12 +4753,12 @@
         <v>121.621628</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H221">
         <v>41.115051999999999</v>
@@ -4786,12 +4767,12 @@
         <v>123.00137100000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H222">
         <v>41.885967999999998</v>
@@ -4800,12 +4781,12 @@
         <v>123.96437299999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E223" s="1">
         <v>30</v>
@@ -4817,12 +4798,12 @@
         <v>123.69251</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H224">
         <v>41.100932999999998</v>
@@ -4831,12 +4812,12 @@
         <v>121.132599</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H225">
         <v>40.006408</v>
@@ -4845,12 +4826,12 @@
         <v>124.36154999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H226">
         <v>40.673138000000002</v>
@@ -4859,12 +4840,12 @@
         <v>122.241575</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H227">
         <v>42.028022</v>
@@ -4873,12 +4854,12 @@
         <v>121.676407</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H228">
         <v>41.125874000000003</v>
@@ -4887,12 +4868,12 @@
         <v>122.07749099999999</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H229">
         <v>40.717362999999999</v>
@@ -4901,12 +4882,12 @@
         <v>120.84339900000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H230">
         <v>41.274161999999997</v>
@@ -4915,12 +4896,12 @@
         <v>123.24336599999999</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H231">
         <v>42.229950000000002</v>
@@ -4929,12 +4910,12 @@
         <v>123.732367</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H232">
         <v>41.579822</v>
@@ -4943,12 +4924,12 @@
         <v>120.45749600000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C233" s="1">
         <v>55</v>
@@ -4966,12 +4947,12 @@
         <v>87.624437999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H234">
         <v>45.585673999999997</v>
@@ -4980,12 +4961,12 @@
         <v>84.895898000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H235">
         <v>42.946289</v>
@@ -4994,12 +4975,12 @@
         <v>89.180436999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H236">
         <v>41.732371999999998</v>
@@ -5008,12 +4989,12 @@
         <v>86.181489999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H237">
         <v>44.012397</v>
@@ -5022,12 +5003,12 @@
         <v>87.286033000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H238">
         <v>43.922722</v>
@@ -5036,12 +5017,12 @@
         <v>81.330541999999994</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H239">
         <v>42.868664000000003</v>
@@ -5050,12 +5031,12 @@
         <v>93.523139</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H240">
         <v>44.912196000000002</v>
@@ -5064,12 +5045,12 @@
         <v>82.072909999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H241">
         <v>41.175029000000002</v>
@@ -5078,12 +5059,12 @@
         <v>80.266938999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H242">
         <v>39.720471000000003</v>
@@ -5092,12 +5073,12 @@
         <v>76.174312999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H243">
         <v>39.476098</v>
@@ -5106,12 +5087,12 @@
         <v>75.996395000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H244">
         <v>37.120446999999999</v>
@@ -5120,12 +5101,12 @@
         <v>79.928511</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H245">
         <v>46.750946999999996</v>
@@ -5134,12 +5115,12 @@
         <v>82.987233000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H246">
         <v>47.358299000000002</v>
@@ -5148,12 +5129,12 @@
         <v>87.835809999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H247">
         <v>44.172445000000003</v>
@@ -5162,12 +5143,12 @@
         <v>87.549932999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H248">
         <v>44.311974999999997</v>
@@ -5176,12 +5157,12 @@
         <v>86.086889999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H249">
         <v>36.067234999999997</v>
@@ -5190,12 +5171,12 @@
         <v>103.840524</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H250">
         <v>38.525821000000001</v>
@@ -5204,12 +5185,12 @@
         <v>102.194603</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H251">
         <v>39.777960999999998</v>
@@ -5218,12 +5199,12 @@
         <v>98.296199999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H252">
         <v>39.738467999999997</v>
@@ -5232,12 +5213,12 @@
         <v>98.500681</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H253">
         <v>35.607562000000001</v>
@@ -5246,12 +5227,12 @@
         <v>103.21639</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H254">
         <v>29.652888000000001</v>
@@ -5260,12 +5241,12 @@
         <v>91.140507999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H255">
         <v>36.550826999999998</v>
@@ -5274,12 +5255,12 @@
         <v>104.144447</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H256">
         <v>34.587412</v>
@@ -5288,12 +5269,12 @@
         <v>105.731421</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H257">
         <v>37.934378000000002</v>
@@ -5302,12 +5283,12 @@
         <v>102.64455599999999</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H258">
         <v>35.549232000000003</v>
@@ -5316,12 +5297,12 @@
         <v>106.67144399999999</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H259">
         <v>38.932065000000001</v>
@@ -5330,12 +5311,12 @@
         <v>100.45640899999999</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H260">
         <v>35.715215999999998</v>
@@ -5344,12 +5325,12 @@
         <v>107.649384</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H261">
         <v>35.586834000000003</v>
@@ -5358,12 +5339,12 @@
         <v>104.63241600000001</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H262">
         <v>33.406621000000001</v>
@@ -5372,12 +5353,12 @@
         <v>104.928578</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H263">
         <v>36.623384999999999</v>
@@ -5386,12 +5367,12 @@
         <v>101.784446</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H264">
         <v>36.634287</v>
@@ -5400,12 +5381,12 @@
         <v>101.781853</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H265">
         <v>36.954070999999999</v>
@@ -5414,12 +5395,12 @@
         <v>100.90973700000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H266">
         <v>35.531962</v>
@@ -5428,12 +5409,12 @@
         <v>102.026543</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H267">
         <v>36.283273000000001</v>
@@ -5442,12 +5423,12 @@
         <v>100.61898600000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H268">
         <v>34.477193</v>
@@ -5456,12 +5437,12 @@
         <v>100.25159600000001</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H269">
         <v>36.615774000000002</v>
@@ -5470,12 +5451,12 @@
         <v>101.78344</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H270">
         <v>38.742356000000001</v>
@@ -5484,12 +5465,12 @@
         <v>93.340123000000006</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E271" s="1">
         <v>30</v>
@@ -5501,12 +5482,12 @@
         <v>106.238496</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H272">
         <v>38.989682999999999</v>
@@ -5515,12 +5496,12 @@
         <v>106.390597</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H273">
         <v>36.021619000000001</v>
@@ -5529,12 +5510,12 @@
         <v>106.248575</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H274">
         <v>38.003712999999998</v>
@@ -5543,12 +5524,12 @@
         <v>106.205367</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H275">
         <v>37.505699999999997</v>
@@ -5557,12 +5538,12 @@
         <v>105.203568</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H276">
         <v>34.347268999999997</v>
@@ -5571,12 +5552,12 @@
         <v>108.946465</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H277">
         <v>34.335476</v>
@@ -5585,12 +5566,12 @@
         <v>108.71542100000001</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H278">
         <v>34.902638000000003</v>
@@ -5599,12 +5580,12 @@
         <v>108.952403</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H279">
         <v>36.591112000000003</v>
@@ -5613,12 +5594,12 @@
         <v>109.496579</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H280">
         <v>34.368915000000001</v>
@@ -5627,12 +5608,12 @@
         <v>107.24457200000001</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E281" s="1">
         <v>20</v>
@@ -5644,12 +5625,12 @@
         <v>109.516593</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H282">
         <v>33.073799999999999</v>
@@ -5658,12 +5639,12 @@
         <v>107.029427</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H283">
         <v>38.290882000000003</v>
@@ -5672,12 +5653,12 @@
         <v>109.741618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H284">
         <v>32.690513000000003</v>
@@ -5686,12 +5667,12 @@
         <v>109.03560400000001</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H285">
         <v>33.878633000000001</v>
@@ -5700,12 +5681,12 @@
         <v>109.924415</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E286" s="1">
         <v>241</v>
@@ -5717,12 +5698,12 @@
         <v>104.08153</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H287">
         <v>31.473662999999998</v>
@@ -5731,12 +5712,12 @@
         <v>104.68556</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H288">
         <v>28.758006999999999</v>
@@ -5745,12 +5726,12 @@
         <v>104.64940300000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H289">
         <v>26.588034</v>
@@ -5759,12 +5740,12 @@
         <v>101.725544</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H290">
         <v>28.877668</v>
@@ -5773,12 +5754,12 @@
         <v>105.448526</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H291">
         <v>29.345585</v>
@@ -5787,12 +5768,12 @@
         <v>104.78444500000001</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H292">
         <v>31.133116000000001</v>
@@ -5801,12 +5782,12 @@
         <v>104.404417</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H293">
         <v>30.539097000000002</v>
@@ -5815,12 +5796,12 @@
         <v>105.599424</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>292</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H294">
         <v>29.585885999999999</v>
@@ -5829,12 +5810,12 @@
         <v>105.06459099999999</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H295">
         <v>29.557939999999999</v>
@@ -5843,12 +5824,12 @@
         <v>103.77254000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H296">
         <v>30.082526999999999</v>
@@ -5857,12 +5838,12 @@
         <v>103.856567</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H297">
         <v>30.461746999999999</v>
@@ -5871,12 +5852,12 @@
         <v>106.639554</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H298">
         <v>31.214307000000002</v>
@@ -5885,12 +5866,12 @@
         <v>107.474592</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H299">
         <v>30.134955999999999</v>
@@ -5899,12 +5880,12 @@
         <v>104.63443700000001</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H300">
         <v>32.441617000000001</v>
@@ -5913,12 +5894,12 @@
         <v>105.850419</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H301">
         <v>30.843782999999998</v>
@@ -5927,12 +5908,12 @@
         <v>106.117504</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H302">
         <v>31.872889000000001</v>
@@ -5941,12 +5922,12 @@
         <v>106.751582</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H303">
         <v>31.905512000000002</v>
@@ -5955,12 +5936,12 @@
         <v>102.231416</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H304">
         <v>30.055278000000001</v>
@@ -5969,12 +5950,12 @@
         <v>101.96854500000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H305">
         <v>27.887751999999999</v>
@@ -5983,12 +5964,12 @@
         <v>102.27350199999999</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H306">
         <v>30.016791999999999</v>
@@ -5997,7 +5978,7 @@
         <v>103.049539</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>305</v>
       </c>
@@ -6014,12 +5995,12 @@
         <v>106.558437</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H308">
         <v>26.653324000000001</v>
@@ -6028,12 +6009,12 @@
         <v>106.63658</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H309">
         <v>26.259253000000001</v>
@@ -6042,12 +6023,12 @@
         <v>105.95441599999999</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H310">
         <v>27.696773</v>
@@ -6056,12 +6037,12 @@
         <v>109.18743600000001</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H311">
         <v>25.093968</v>
@@ -6070,12 +6051,12 @@
         <v>104.91249000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H312">
         <v>26.589704000000001</v>
@@ -6084,12 +6065,12 @@
         <v>107.989447</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H313">
         <v>26.260615999999999</v>
@@ -6098,12 +6079,12 @@
         <v>107.5284</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H314">
         <v>27.731701000000001</v>
@@ -6112,12 +6093,12 @@
         <v>106.933426</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>310</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H315">
         <v>26.598834</v>
@@ -6126,12 +6107,12 @@
         <v>104.837553</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H316">
         <v>27.304095</v>
@@ -6140,12 +6121,12 @@
         <v>105.31158000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E317" s="1">
         <v>30</v>
@@ -6160,12 +6141,12 @@
         <v>102.852451</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H318">
         <v>25.496407000000001</v>
@@ -6174,12 +6155,12 @@
         <v>103.802436</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H319">
         <v>25.139039</v>
@@ -6188,12 +6169,12 @@
         <v>99.177276000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H320">
         <v>26.860657</v>
@@ -6202,12 +6183,12 @@
         <v>100.232462</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H321">
         <v>25.612128999999999</v>
@@ -6216,12 +6197,12 @@
         <v>100.27458300000001</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H322">
         <v>22.013601000000001</v>
@@ -6230,12 +6211,12 @@
         <v>100.803443</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H323">
         <v>24.357710000000001</v>
@@ -6244,12 +6225,12 @@
         <v>102.553557</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H324">
         <v>22.805626</v>
@@ -6258,12 +6239,12 @@
         <v>100.98349899999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H325">
         <v>23.890467999999998</v>
@@ -6272,12 +6253,12 @@
         <v>100.095443</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H326">
         <v>23.405995000000001</v>
@@ -6286,12 +6267,12 @@
         <v>104.222573</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H327">
         <v>25.051773000000001</v>
@@ -6300,12 +6281,12 @@
         <v>101.534412</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H328">
         <v>27.825185000000001</v>
@@ -6314,12 +6295,12 @@
         <v>99.709530999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H329">
         <v>27.344083000000001</v>
@@ -6328,12 +6309,12 @@
         <v>103.72351</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H330">
         <v>23.369996</v>
@@ -6342,12 +6323,12 @@
         <v>103.381552</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H331">
         <v>24.438010999999999</v>
@@ -6356,12 +6337,12 @@
         <v>98.591356000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H332">
         <v>25.823708</v>
@@ -6370,12 +6351,12 @@
         <v>98.863291000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H333">
         <v>29.650040000000001</v>
@@ -6384,12 +6365,12 @@
         <v>91.120823000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H334">
         <v>31.149622000000001</v>
@@ -6398,12 +6379,12 @@
         <v>97.174824999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H335">
         <v>29.243027000000001</v>
@@ -6412,12 +6393,12 @@
         <v>91.778678999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H336">
         <v>29.255583000000001</v>
@@ -6426,12 +6407,12 @@
         <v>88.902951999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H337">
         <v>29.673397000000001</v>
@@ -6440,12 +6421,12 @@
         <v>91.134439999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>333</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H338">
         <v>32.506866000000002</v>
@@ -6454,12 +6435,12 @@
         <v>80.112780999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H339">
         <v>29.661791000000001</v>
@@ -6471,5 +6452,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>